--- a/generator/generateformtest.xlsx
+++ b/generator/generateformtest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="40" windowWidth="8480" windowHeight="8480"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17460"/>
   </bookViews>
   <sheets>
     <sheet name="数値" sheetId="5" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="もろもろ" sheetId="9" r:id="rId4"/>
     <sheet name="グルーピング" sheetId="7" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="114210" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="187">
   <si>
     <t>機能ID</t>
     <rPh sb="0" eb="2">
@@ -864,6 +864,22 @@
   </si>
   <si>
     <t>java.util.List&lt;String&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>##ATTR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FORMATPATTERN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FormatPattern</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FormatPattern</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1015,8 +1031,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1093,7 +1111,7 @@
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="45">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -1115,6 +1133,7 @@
     <cellStyle name="ハイパーリンク" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -1137,6 +1156,7 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="44" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1533,13 +1553,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T18"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" x14ac:dyDescent="0"/>
@@ -1590,65 +1610,42 @@
     </row>
     <row r="4" spans="1:20" s="2" customFormat="1" outlineLevel="1">
       <c r="B4" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" s="2" customFormat="1" outlineLevel="1">
+      <c r="B5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="2" customFormat="1"/>
-    <row r="6" spans="1:20" s="2" customFormat="1">
-      <c r="A6" s="5"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="4" t="s">
+    <row r="6" spans="1:20" s="2" customFormat="1"/>
+    <row r="7" spans="1:20" s="2" customFormat="1">
+      <c r="A7" s="5"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-    </row>
-    <row r="7" spans="1:20" s="2" customFormat="1">
-      <c r="A7" s="6"/>
-      <c r="B7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="4" t="s">
-        <v>174</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="J7" s="4"/>
       <c r="K7" s="4"/>
-      <c r="L7" s="4" t="s">
-        <v>34</v>
-      </c>
+      <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
@@ -1659,174 +1656,173 @@
       <c r="T7" s="4"/>
     </row>
     <row r="8" spans="1:20" s="2" customFormat="1">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="6"/>
+      <c r="B8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+    </row>
+    <row r="9" spans="1:20" s="2" customFormat="1">
+      <c r="A9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L9" s="4">
         <v>1</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M9" s="4">
         <v>2</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N9" s="4">
         <v>3</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O9" s="4">
         <v>4</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P9" s="4">
         <v>5</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q9" s="4">
         <v>6</v>
       </c>
-      <c r="R8" s="4">
+      <c r="R9" s="4">
         <v>7</v>
       </c>
-      <c r="S8" s="4">
+      <c r="S9" s="4">
         <v>8</v>
       </c>
-      <c r="T8" s="4">
+      <c r="T9" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:20" s="2" customFormat="1" outlineLevel="1">
-      <c r="A9" s="4" t="s">
+    <row r="10" spans="1:20" s="2" customFormat="1" outlineLevel="1">
+      <c r="A10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="L10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="M10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="N9" s="4" t="s">
+      <c r="N10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="O9" s="4" t="s">
+      <c r="O10" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="P9" s="4" t="s">
+      <c r="P10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="Q9" s="4" t="s">
+      <c r="Q10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="R9" s="4" t="s">
+      <c r="R10" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="S9" s="4" t="s">
+      <c r="S10" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="T9" s="4" t="s">
+      <c r="T10" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" s="3">
-        <f t="shared" ref="A10:A18" si="0">ROW()-9</f>
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A11:A19" si="0">ROW()-9</f>
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>11</v>
@@ -1835,12 +1831,12 @@
         <v>46</v>
       </c>
       <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="G11" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="3">
-        <v>10</v>
-      </c>
+      <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
@@ -1858,10 +1854,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>11</v>
@@ -1873,10 +1869,10 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3">
+      <c r="J12" s="3">
         <v>10</v>
       </c>
+      <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
@@ -1893,25 +1889,25 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F13" s="3"/>
-      <c r="G13" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
+      <c r="K13" s="3">
+        <v>10</v>
+      </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
@@ -1928,10 +1924,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>11</v>
@@ -1940,12 +1936,12 @@
         <v>56</v>
       </c>
       <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="G14" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="3">
-        <v>10</v>
-      </c>
+      <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
@@ -1963,10 +1959,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>11</v>
@@ -1978,10 +1974,10 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3">
+      <c r="J15" s="3">
         <v>10</v>
       </c>
+      <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
@@ -1998,25 +1994,25 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F16" s="3"/>
-      <c r="G16" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
+      <c r="K16" s="3">
+        <v>10</v>
+      </c>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
@@ -2033,10 +2029,10 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>11</v>
@@ -2045,12 +2041,12 @@
         <v>57</v>
       </c>
       <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+      <c r="G17" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
-      <c r="J17" s="3">
-        <v>10</v>
-      </c>
+      <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
@@ -2068,10 +2064,10 @@
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>11</v>
@@ -2083,10 +2079,10 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3">
+      <c r="J18" s="3">
         <v>10</v>
       </c>
+      <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
@@ -2096,6 +2092,41 @@
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" s="3">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3">
+        <v>10</v>
+      </c>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2111,14 +2142,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T18"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B10" sqref="B10"/>
-      <selection pane="topRight" activeCell="B10" sqref="B10"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B11" sqref="B11"/>
+      <selection pane="topRight" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" x14ac:dyDescent="0"/>
@@ -2169,65 +2200,42 @@
     </row>
     <row r="4" spans="1:20" s="2" customFormat="1" outlineLevel="1">
       <c r="B4" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" s="2" customFormat="1" outlineLevel="1">
+      <c r="B5" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="2" customFormat="1"/>
-    <row r="6" spans="1:20" s="2" customFormat="1">
-      <c r="A6" s="5"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="4" t="s">
+    <row r="6" spans="1:20" s="2" customFormat="1"/>
+    <row r="7" spans="1:20" s="2" customFormat="1">
+      <c r="A7" s="5"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-    </row>
-    <row r="7" spans="1:20" s="2" customFormat="1">
-      <c r="A7" s="6"/>
-      <c r="B7" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="4" t="s">
-        <v>178</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="J7" s="4"/>
       <c r="K7" s="4"/>
-      <c r="L7" s="4" t="s">
-        <v>34</v>
-      </c>
+      <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
@@ -2238,181 +2246,182 @@
       <c r="T7" s="4"/>
     </row>
     <row r="8" spans="1:20" s="2" customFormat="1">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="6"/>
+      <c r="B8" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+    </row>
+    <row r="9" spans="1:20" s="2" customFormat="1">
+      <c r="A9" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L9" s="4">
         <v>1</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M9" s="4">
         <v>2</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N9" s="4">
         <v>3</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O9" s="4">
         <v>4</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P9" s="4">
         <v>5</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q9" s="4">
         <v>6</v>
       </c>
-      <c r="R8" s="4">
+      <c r="R9" s="4">
         <v>7</v>
       </c>
-      <c r="S8" s="4">
+      <c r="S9" s="4">
         <v>8</v>
       </c>
-      <c r="T8" s="4">
+      <c r="T9" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:20" s="2" customFormat="1" outlineLevel="1">
-      <c r="A9" s="4" t="s">
+    <row r="10" spans="1:20" s="2" customFormat="1" outlineLevel="1">
+      <c r="A10" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B10" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I10" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J10" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K10" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="L10" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="M10" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="N9" s="4" t="s">
+      <c r="N10" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="O9" s="4" t="s">
+      <c r="O10" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="P9" s="4" t="s">
+      <c r="P10" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="Q9" s="4" t="s">
+      <c r="Q10" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="R9" s="4" t="s">
+      <c r="R10" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="S9" s="4" t="s">
+      <c r="S10" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="T9" s="4" t="s">
+      <c r="T10" s="4" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" s="3">
-        <f t="shared" ref="A10:A18" si="0">ROW()-9</f>
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A11:A19" si="0">ROW()-9</f>
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="G11" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -2433,16 +2442,16 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>85</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -2466,19 +2475,19 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E13" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="F13" s="3"/>
-      <c r="G13" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -2499,19 +2508,19 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="G14" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -2532,16 +2541,16 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>90</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -2565,19 +2574,19 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="3"/>
+        <v>90</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="F16" s="3"/>
-      <c r="G16" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
@@ -2598,19 +2607,19 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+      <c r="G17" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
@@ -2631,16 +2640,16 @@
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -2658,585 +2667,22 @@
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
     </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B10" sqref="B10"/>
-      <selection pane="topRight" activeCell="B10" sqref="B10"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="20.6640625" style="1" customWidth="1"/>
-    <col min="4" max="11" width="10.6640625" style="1" customWidth="1"/>
-    <col min="12" max="20" width="2.6640625" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" s="2" customFormat="1">
-      <c r="B1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" s="2" customFormat="1" outlineLevel="1">
-      <c r="B2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" s="2" customFormat="1" outlineLevel="1">
-      <c r="B3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="2" t="str">
-        <f>C2&amp;"."&amp;LOWER(C1)&amp;"."&amp;LOWER(E1)&amp;"."&amp;G1&amp;"Form"</f>
-        <v>cherry.generator.form.StringForm</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" s="2" customFormat="1" outlineLevel="1">
-      <c r="B4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" s="2" customFormat="1"/>
-    <row r="6" spans="1:20" s="2" customFormat="1">
-      <c r="A6" s="5"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-    </row>
-    <row r="7" spans="1:20" s="2" customFormat="1">
-      <c r="A7" s="6"/>
-      <c r="B7" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-    </row>
-    <row r="8" spans="1:20" s="2" customFormat="1">
-      <c r="A8" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L8" s="4">
-        <v>1</v>
-      </c>
-      <c r="M8" s="4">
-        <v>2</v>
-      </c>
-      <c r="N8" s="4">
-        <v>3</v>
-      </c>
-      <c r="O8" s="4">
-        <v>4</v>
-      </c>
-      <c r="P8" s="4">
-        <v>5</v>
-      </c>
-      <c r="Q8" s="4">
-        <v>6</v>
-      </c>
-      <c r="R8" s="4">
-        <v>7</v>
-      </c>
-      <c r="S8" s="4">
-        <v>8</v>
-      </c>
-      <c r="T8" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" s="2" customFormat="1" outlineLevel="1">
-      <c r="A9" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q9" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="R9" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="S9" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="T9" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" s="3">
-        <f t="shared" ref="A10:A29" si="0">ROW()-9</f>
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" s="3">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3">
-        <v>10</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" s="3">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3">
-        <v>10</v>
-      </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" s="3">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" s="3">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="3">
-        <v>10</v>
-      </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" s="3">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3">
-        <v>10</v>
-      </c>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" s="3">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" s="3">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" s="3">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-    </row>
     <row r="19" spans="1:20">
       <c r="A19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>138</v>
+        <v>14</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -3254,336 +2700,6 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
     </row>
-    <row r="20" spans="1:20">
-      <c r="A20" s="3">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" s="3">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" s="3">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" s="3">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" s="3">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" s="3">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" s="3">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" s="3">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" s="3">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" s="3">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51200000000000001" footer="0.51200000000000001"/>
@@ -3596,16 +2712,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T15"/>
+  <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B10" sqref="B10"/>
-      <selection pane="topRight" activeCell="B10" sqref="B10"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B11" sqref="B11"/>
+      <selection pane="topRight" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" x14ac:dyDescent="0"/>
@@ -3634,7 +2750,7 @@
         <v>0</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="2" customFormat="1" outlineLevel="1">
@@ -3651,70 +2767,47 @@
       </c>
       <c r="C3" s="2" t="str">
         <f>C2&amp;"."&amp;LOWER(C1)&amp;"."&amp;LOWER(E1)&amp;"."&amp;G1&amp;"Form"</f>
-        <v>cherry.generator.form.MiscForm</v>
+        <v>cherry.generator.form.StringForm</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="2" customFormat="1" outlineLevel="1">
       <c r="B4" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" s="2" customFormat="1" outlineLevel="1">
+      <c r="B5" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="2" customFormat="1"/>
-    <row r="6" spans="1:20" s="2" customFormat="1">
-      <c r="A6" s="5"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="4" t="s">
+    <row r="6" spans="1:20" s="2" customFormat="1"/>
+    <row r="7" spans="1:20" s="2" customFormat="1">
+      <c r="A7" s="5"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-    </row>
-    <row r="7" spans="1:20" s="2" customFormat="1">
-      <c r="A7" s="6"/>
-      <c r="B7" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="4" t="s">
-        <v>180</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="J7" s="4"/>
       <c r="K7" s="4"/>
-      <c r="L7" s="4" t="s">
-        <v>34</v>
-      </c>
+      <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
@@ -3725,175 +2818,176 @@
       <c r="T7" s="4"/>
     </row>
     <row r="8" spans="1:20" s="2" customFormat="1">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="6"/>
+      <c r="B8" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+    </row>
+    <row r="9" spans="1:20" s="2" customFormat="1">
+      <c r="A9" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L9" s="4">
         <v>1</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M9" s="4">
         <v>2</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N9" s="4">
         <v>3</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O9" s="4">
         <v>4</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P9" s="4">
         <v>5</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q9" s="4">
         <v>6</v>
       </c>
-      <c r="R8" s="4">
+      <c r="R9" s="4">
         <v>7</v>
       </c>
-      <c r="S8" s="4">
+      <c r="S9" s="4">
         <v>8</v>
       </c>
-      <c r="T8" s="4">
+      <c r="T9" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:20" s="2" customFormat="1" outlineLevel="1">
-      <c r="A9" s="4" t="s">
+    <row r="10" spans="1:20" s="2" customFormat="1" outlineLevel="1">
+      <c r="A10" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B10" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I10" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J10" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K10" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="L10" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="M10" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="N9" s="4" t="s">
+      <c r="N10" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="O9" s="4" t="s">
+      <c r="O10" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="P9" s="4" t="s">
+      <c r="P10" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="Q9" s="4" t="s">
+      <c r="Q10" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="R9" s="4" t="s">
+      <c r="R10" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="S9" s="4" t="s">
+      <c r="S10" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="T9" s="4" t="s">
+      <c r="T10" s="4" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" s="3">
-        <f t="shared" ref="A10:A15" si="0">ROW()-9</f>
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A11:A30" si="0">ROW()-9</f>
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>119</v>
+        <v>8</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -3918,13 +3012,952 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>120</v>
+        <v>8</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3">
+        <v>10</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3">
+        <v>10</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="3">
+        <v>10</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" s="3">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3">
+        <v>10</v>
+      </c>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" s="3">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" s="3">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" s="3">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="3">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="3">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="3">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="3">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="3">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="3">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="3">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="3">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="3">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B11" sqref="B11"/>
+      <selection pane="topRight" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="20.6640625" style="1" customWidth="1"/>
+    <col min="4" max="11" width="10.6640625" style="1" customWidth="1"/>
+    <col min="12" max="20" width="2.6640625" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" s="2" customFormat="1">
+      <c r="B1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" s="2" customFormat="1" outlineLevel="1">
+      <c r="B2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" s="2" customFormat="1" outlineLevel="1">
+      <c r="B3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="2" t="str">
+        <f>C2&amp;"."&amp;LOWER(C1)&amp;"."&amp;LOWER(E1)&amp;"."&amp;G1&amp;"Form"</f>
+        <v>cherry.generator.form.MiscForm</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" s="2" customFormat="1" outlineLevel="1">
+      <c r="B4" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" s="2" customFormat="1" outlineLevel="1">
+      <c r="B5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" s="2" customFormat="1"/>
+    <row r="7" spans="1:20" s="2" customFormat="1">
+      <c r="A7" s="5"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+    </row>
+    <row r="8" spans="1:20" s="2" customFormat="1">
+      <c r="A8" s="6"/>
+      <c r="B8" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+    </row>
+    <row r="9" spans="1:20" s="2" customFormat="1">
+      <c r="A9" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" s="4">
+        <v>1</v>
+      </c>
+      <c r="M9" s="4">
+        <v>2</v>
+      </c>
+      <c r="N9" s="4">
+        <v>3</v>
+      </c>
+      <c r="O9" s="4">
+        <v>4</v>
+      </c>
+      <c r="P9" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>6</v>
+      </c>
+      <c r="R9" s="4">
+        <v>7</v>
+      </c>
+      <c r="S9" s="4">
+        <v>8</v>
+      </c>
+      <c r="T9" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" s="2" customFormat="1" outlineLevel="1">
+      <c r="A10" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="3">
+        <f t="shared" ref="A11:A16" si="0">ROW()-9</f>
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -3949,21 +3982,17 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>181</v>
+        <v>120</v>
       </c>
       <c r="E13" s="3"/>
-      <c r="F13" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -3984,17 +4013,21 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>122</v>
+        <v>181</v>
       </c>
       <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -4015,13 +4048,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -4040,6 +4073,37 @@
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
     </row>
+    <row r="16" spans="1:20">
+      <c r="A16" s="3">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51200000000000001" footer="0.51200000000000001"/>
@@ -4054,14 +4118,14 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B10" sqref="B10"/>
-      <selection pane="topRight" activeCell="B10" sqref="B10"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B11" sqref="B11"/>
+      <selection pane="topRight" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" x14ac:dyDescent="0"/>
@@ -4112,65 +4176,42 @@
     </row>
     <row r="4" spans="1:20" s="2" customFormat="1" outlineLevel="1">
       <c r="B4" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" s="2" customFormat="1" outlineLevel="1">
+      <c r="B5" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="2" customFormat="1"/>
-    <row r="6" spans="1:20" s="2" customFormat="1">
-      <c r="A6" s="5"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="4" t="s">
+    <row r="6" spans="1:20" s="2" customFormat="1"/>
+    <row r="7" spans="1:20" s="2" customFormat="1">
+      <c r="A7" s="5"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-    </row>
-    <row r="7" spans="1:20" s="2" customFormat="1">
-      <c r="A7" s="6"/>
-      <c r="B7" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="4" t="s">
-        <v>178</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="J7" s="4"/>
       <c r="K7" s="4"/>
-      <c r="L7" s="4" t="s">
-        <v>34</v>
-      </c>
+      <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
@@ -4181,174 +4222,173 @@
       <c r="T7" s="4"/>
     </row>
     <row r="8" spans="1:20" s="2" customFormat="1">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="6"/>
+      <c r="B8" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+    </row>
+    <row r="9" spans="1:20" s="2" customFormat="1">
+      <c r="A9" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L9" s="4">
         <v>1</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M9" s="4">
         <v>2</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N9" s="4">
         <v>3</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O9" s="4">
         <v>4</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P9" s="4">
         <v>5</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q9" s="4">
         <v>6</v>
       </c>
-      <c r="R8" s="4">
+      <c r="R9" s="4">
         <v>7</v>
       </c>
-      <c r="S8" s="4">
+      <c r="S9" s="4">
         <v>8</v>
       </c>
-      <c r="T8" s="4">
+      <c r="T9" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:20" s="2" customFormat="1" outlineLevel="1">
-      <c r="A9" s="4" t="s">
+    <row r="10" spans="1:20" s="2" customFormat="1" outlineLevel="1">
+      <c r="A10" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B10" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I10" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J10" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K10" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="L10" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="M10" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="N9" s="4" t="s">
+      <c r="N10" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="O9" s="4" t="s">
+      <c r="O10" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="P9" s="4" t="s">
+      <c r="P10" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="Q9" s="4" t="s">
+      <c r="Q10" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="R9" s="4" t="s">
+      <c r="R10" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="S9" s="4" t="s">
+      <c r="S10" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="T9" s="4" t="s">
+      <c r="T10" s="4" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" s="3">
-        <f t="shared" ref="A10:A19" si="0">ROW()-9</f>
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A11:A20" si="0">ROW()-9</f>
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>8</v>
@@ -4362,10 +4402,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3" t="s">
+      <c r="L11" s="3" t="s">
         <v>95</v>
       </c>
+      <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
@@ -4380,10 +4420,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>8</v>
@@ -4398,10 +4438,10 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3" t="s">
+      <c r="M12" s="3" t="s">
         <v>95</v>
       </c>
+      <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
@@ -4415,10 +4455,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>8</v>
@@ -4434,10 +4474,10 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3" t="s">
+      <c r="N13" s="3" t="s">
         <v>95</v>
       </c>
+      <c r="O13" s="3"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
@@ -4450,10 +4490,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
@@ -4470,10 +4510,10 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>95</v>
       </c>
+      <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
@@ -4485,10 +4525,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>8</v>
@@ -4506,10 +4546,10 @@
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3" t="s">
+      <c r="P15" s="3" t="s">
         <v>95</v>
       </c>
+      <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
@@ -4520,10 +4560,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>8</v>
@@ -4542,10 +4582,10 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3" t="s">
+      <c r="Q16" s="3" t="s">
         <v>95</v>
       </c>
+      <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
     </row>
@@ -4555,10 +4595,10 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>8</v>
@@ -4578,10 +4618,10 @@
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3" t="s">
+      <c r="R17" s="3" t="s">
         <v>95</v>
       </c>
+      <c r="S17" s="3"/>
       <c r="T17" s="3"/>
     </row>
     <row r="18" spans="1:20">
@@ -4590,10 +4630,10 @@
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>8</v>
@@ -4614,10 +4654,10 @@
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3" t="s">
+      <c r="S18" s="3" t="s">
         <v>95</v>
       </c>
+      <c r="T18" s="3"/>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="3">
@@ -4625,10 +4665,10 @@
         <v>10</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>8</v>
@@ -4642,31 +4682,66 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-      <c r="L19" s="3" t="s">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="M19" s="3" t="s">
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="3">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="N19" s="3" t="s">
+      <c r="M20" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="O19" s="3" t="s">
+      <c r="N20" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="P19" s="3" t="s">
+      <c r="O20" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="Q19" s="3" t="s">
+      <c r="P20" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="R19" s="3" t="s">
+      <c r="Q20" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="S19" s="3" t="s">
+      <c r="R20" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="T19" s="3" t="s">
+      <c r="S20" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="T20" s="3" t="s">
         <v>95</v>
       </c>
     </row>
